--- a/docs/source/tensiontest/metadata_tensiontest.xlsx
+++ b/docs/source/tensiontest/metadata_tensiontest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="186">
   <si>
     <t>original thickness of a flat test piece or wall thickness of a tube</t>
   </si>
@@ -36,6 +36,9 @@
     <t>initial gauge length for determination of Awn</t>
   </si>
   <si>
+    <t>label</t>
+  </si>
+  <si>
     <t>unit</t>
   </si>
   <si>
@@ -219,9 +222,6 @@
     <t>lower yield strength</t>
   </si>
   <si>
-    <t>sdata</t>
-  </si>
-  <si>
     <t>flat</t>
   </si>
   <si>
@@ -240,15 +240,6 @@
     <t>ao</t>
   </si>
   <si>
-    <t>b0</t>
-  </si>
-  <si>
-    <t>d0</t>
-  </si>
-  <si>
-    <t>D0</t>
-  </si>
-  <si>
     <t>Lo</t>
   </si>
   <si>
@@ -324,9 +315,6 @@
     <t>Le</t>
   </si>
   <si>
-    <t>L'wn</t>
-  </si>
-  <si>
     <t>material</t>
   </si>
   <si>
@@ -366,9 +354,6 @@
     <t>force [kN]</t>
   </si>
   <si>
-    <t>data …</t>
-  </si>
-  <si>
     <t>sig_tech</t>
   </si>
   <si>
@@ -390,17 +375,233 @@
     <t>epsel_tech</t>
   </si>
   <si>
-    <t>s</t>
+    <t>test time</t>
+  </si>
+  <si>
+    <t>specimen_type</t>
+  </si>
+  <si>
+    <t>din50125_h20x80</t>
+  </si>
+  <si>
+    <t>specimen_id</t>
+  </si>
+  <si>
+    <t>UT_Flat_Type1</t>
+  </si>
+  <si>
+    <t>UT, NT, CH</t>
+  </si>
+  <si>
+    <t>dLg?</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>data columns …</t>
+  </si>
+  <si>
+    <t>L'o</t>
+  </si>
+  <si>
+    <t>dLe, dLo or s, u?</t>
+  </si>
+  <si>
+    <t>sdata_name</t>
+  </si>
+  <si>
+    <t>$a_o$</t>
+  </si>
+  <si>
+    <t>$b_o$</t>
+  </si>
+  <si>
+    <t>bo</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>Do</t>
+  </si>
+  <si>
+    <t>original diameter</t>
+  </si>
+  <si>
+    <t>original external diameter of the tube</t>
+  </si>
+  <si>
+    <t>$F_max$</t>
+  </si>
+  <si>
+    <t>$R_m$</t>
+  </si>
+  <si>
+    <t>engineering stress</t>
+  </si>
+  <si>
+    <t>material_norm_name</t>
+  </si>
+  <si>
+    <t>material_number_norm</t>
+  </si>
+  <si>
+    <t>material_name</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>sample_ident_number</t>
+  </si>
+  <si>
+    <t>sample_geometry</t>
+  </si>
+  <si>
+    <t>sample_direction</t>
+  </si>
+  <si>
+    <t>nominal_pre_deformation &lt;%&gt;</t>
+  </si>
+  <si>
+    <t>actual_pre_deformation &lt;%&gt;</t>
+  </si>
+  <si>
+    <t>direction_of_pre_deformation</t>
+  </si>
+  <si>
+    <t>heat_treatment</t>
+  </si>
+  <si>
+    <t>actual_sample_width_&lt;mm&gt;</t>
+  </si>
+  <si>
+    <t>actual_sample_thickness_&lt;mm&gt;</t>
+  </si>
+  <si>
+    <t>actual_gauge_length_&lt;mm&gt;</t>
+  </si>
+  <si>
+    <t>nominal_testing_temperature_&lt;K&gt;</t>
+  </si>
+  <si>
+    <t>nominal_testing_speed_&lt;m/s&gt;</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>date_of_test_&lt;dd.mm.yyyy&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tester</t>
+  </si>
+  <si>
+    <t>place_of_test</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>name_test</t>
+  </si>
+  <si>
+    <t>name_testseries</t>
+  </si>
+  <si>
+    <t>name_testprogram</t>
+  </si>
+  <si>
+    <t>uuid_testprogram</t>
+  </si>
+  <si>
+    <t>uuid_testseries</t>
+  </si>
+  <si>
+    <t>uuid_test</t>
+  </si>
+  <si>
+    <t>cdate</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>laboratory</t>
+  </si>
+  <si>
+    <t>deg or °?</t>
+  </si>
+  <si>
+    <t>P20-scale-02</t>
+  </si>
+  <si>
+    <t>no comment</t>
+  </si>
+  <si>
+    <t>Estress</t>
+  </si>
+  <si>
+    <t>Estrain</t>
+  </si>
+  <si>
+    <t>Tstress</t>
+  </si>
+  <si>
+    <t>Tstrain</t>
+  </si>
+  <si>
+    <t>engineering Stress</t>
+  </si>
+  <si>
+    <t>engineering Strain</t>
+  </si>
+  <si>
+    <t>True Stress</t>
+  </si>
+  <si>
+    <t>True Strain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -414,15 +615,20 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -430,15 +636,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Ausgabe" xfId="1" builtinId="21"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -738,53 +964,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="600" topLeftCell="A22" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" customWidth="1"/>
     <col min="6" max="6" width="118.7109375" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
       </c>
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
         <v>72</v>
@@ -793,18 +1027,24 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="H2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>134</v>
+      </c>
+      <c r="B3" s="4">
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
         <v>71</v>
@@ -813,52 +1053,66 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="H3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>75</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B4" s="4"/>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>137</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>76</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B5" s="4"/>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>138</v>
       </c>
       <c r="F5" t="s">
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>77</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="4">
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -867,489 +1121,835 @@
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>102</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B7" s="4"/>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
       </c>
       <c r="F7" t="s">
         <v>5</v>
       </c>
       <c r="G7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="4">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" t="s">
         <v>24</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" t="s">
+        <v>141</v>
+      </c>
+      <c r="F24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" t="s">
+        <v>86</v>
+      </c>
+      <c r="H24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="4">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>149</v>
+      </c>
+      <c r="D48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>150</v>
+      </c>
+      <c r="D49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="4">
+        <v>90</v>
+      </c>
+      <c r="C50" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>20.53</v>
+      </c>
+      <c r="C52" t="s">
+        <v>153</v>
+      </c>
+      <c r="D52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>1.98</v>
+      </c>
+      <c r="C53" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>80.5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="4">
+        <v>296</v>
+      </c>
+      <c r="C55" t="s">
+        <v>156</v>
+      </c>
+      <c r="D55" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>157</v>
+      </c>
+      <c r="D56" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>163</v>
+      </c>
+      <c r="B57" t="s">
+        <v>176</v>
+      </c>
+      <c r="C57" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" t="s">
+        <v>159</v>
+      </c>
+      <c r="D58" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" t="s">
+        <v>177</v>
+      </c>
+      <c r="C61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>107</v>
+      </c>
+      <c r="C74" t="s">
+        <v>108</v>
+      </c>
+      <c r="F74" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>125</v>
+      </c>
+      <c r="C75" t="s">
         <v>109</v>
       </c>
-      <c r="F8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" t="s">
-        <v>66</v>
-      </c>
-      <c r="G27" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" t="s">
-        <v>86</v>
-      </c>
-      <c r="G29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" t="s">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>130</v>
+      </c>
+      <c r="C76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
+      <c r="C77" t="s">
+        <v>111</v>
+      </c>
+      <c r="F77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>112</v>
+      </c>
+      <c r="C78" t="s">
+        <v>178</v>
+      </c>
+      <c r="E78" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>113</v>
+      </c>
+      <c r="C79" t="s">
+        <v>179</v>
+      </c>
+      <c r="E79" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>114</v>
+      </c>
+      <c r="C81" t="s">
+        <v>180</v>
+      </c>
+      <c r="E81" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>115</v>
+      </c>
+      <c r="C82" t="s">
+        <v>181</v>
+      </c>
+      <c r="E82" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>124</v>
-      </c>
-      <c r="C35" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
